--- a/GATEWAY/A1#111SCSCOMPUTERS/SCS_SRL/AUSYLIA/1.0.8/report-checklist.xlsx
+++ b/GATEWAY/A1#111SCSCOMPUTERS/SCS_SRL/AUSYLIA/1.0.8/report-checklist.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SCS\#TODO\2023-01-09 - #4587 - FSE 2.0\collaudo_FSE_2.0_2023_11_13\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SCS\#TODO\2023-01-09 - #4587 - FSE 2.0\collaudo_FSE_2.0_2023_11_22\AUSYLIA\1.0.8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF85F459-108F-4917-B1A1-57409EC8BE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642DCD6A-9D3A-43DE-95AA-E913226A5E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-13068" windowWidth="46296" windowHeight="25416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="204">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -723,180 +723,9 @@
     <t>subject_application_id: AUSYLIA</t>
   </si>
   <si>
-    <t>2023-11-13T16:03:02+01</t>
-  </si>
-  <si>
-    <t>4a502158d81362ac</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90907.62e53aabc4ba3a2b7c6457d98f89b2440efdc49a14f7ad9ec391d50a06b18a12.c0cc29c1e0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-13T16:03:03+01</t>
-  </si>
-  <si>
-    <t>404fcfa145d17284</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90907.b2d122068d4a0f03424a1e1ee74ef16b9af1ba51783218d1b65a67b9d97eb8e5.63af437aa9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-13T16:02:34+01</t>
-  </si>
-  <si>
-    <t>6f5431d2fc5c877e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90907.d0d5f9fd90d070b3f7ae865cbbd97f6d25e6400306c32db24b0d99a3165a0187.8d01fbce8c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-13T16:03:04+01</t>
-  </si>
-  <si>
-    <t>ec3a66e8403d500f</t>
-  </si>
-  <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t>483d5c4b60a48410</t>
-  </si>
-  <si>
-    <t>2023-11-13T16:03:05+01</t>
-  </si>
-  <si>
-    <t>f8dccf01525c2624</t>
-  </si>
-  <si>
-    <t>2023-11-13T16:02:35+01</t>
-  </si>
-  <si>
-    <t>8c530e6ac5df382d</t>
-  </si>
-  <si>
-    <t>2023-11-13T16:03:06+01</t>
-  </si>
-  <si>
-    <t>45ec75ac7e3be5e3</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90907.8a911160db2110e0c2a307dfd6e3ec455a4f9216cc8219a39a98211a12a51ef9.f36e423f4c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-13T16:03:07+01</t>
-  </si>
-  <si>
-    <t>4397bb2f0fe41db7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90907.a65ee313512186fae0a08b1ca2c078035a7d293e5f200ddd9818c5eaac2167db.56b7030569^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-13T16:03:08+01</t>
-  </si>
-  <si>
-    <t>c38ad93343ae344b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90907.266b94e98ed7bc3328e27ffe61402e348f6895494f32eb04763190dd343f05ff.ebe6ed6491^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-13T16:03:09+01</t>
-  </si>
-  <si>
-    <t>4110e7896a0802e7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90907.1b66e515c8c834e945f4733d6c735a5c8dd023d5ee6e72df8402fa28812fa9a8.db9386b6ae^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-13T16:02:36+01</t>
-  </si>
-  <si>
-    <t>1923c2d6997d3575</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90907.ce8a3c24feb0ca3a465ff2df7af2716517f0791c745a531af6365cb5871bb801.cb14060f1c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-13T16:02:37+01</t>
-  </si>
-  <si>
-    <t>6c2a55e7fb442589</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90907.f31dbda35b5e1c8c6c36ed7e675e493a3949a47f9ed1ffbf38396038295ee319.09508dcea6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-13T16:02:39+01</t>
-  </si>
-  <si>
-    <t>a8743316249b73ac</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90907.fbb9acf925be6cfa1d5d01c863e72422efcda107c8dc35605c5ae4bc30f32c9c.a0c55ca71c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-13T16:02:40+01</t>
-  </si>
-  <si>
-    <t>7ff88ba45e0632bf</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90907.ee401b6adb8085b4377148834cfb5cb89b6a73300e9cdbfded7fa2c2faa7d684.eb41bb5617^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-13T16:02:41+01</t>
-  </si>
-  <si>
-    <t>7f917f005770bdf5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90907.8f44b0358bd881268f53e2e9439070217705b2f5f0e3b79e11c6742b323fc3e7.c89f1ca295^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-13T16:02:42+01</t>
-  </si>
-  <si>
-    <t>89e741fd3030d37a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90907.68feaa46169d80fcf05249bf6cd0facb4a82b4371dee8ef7e22cbd12c7a83fa5.b29a5abe7f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-13T16:02:43+01</t>
-  </si>
-  <si>
-    <t>7e429320ef3552ad</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90907.b7078f01b3b1dee16c302b56ccb2d7dcb7b27bc46392505e7d353b700dfb4bdb.0287ee2ca9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-13T16:02:44+01</t>
-  </si>
-  <si>
-    <t>46b4836743393650</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90907.6908101d7a849b222d357aa532c5fa9a98073a52c82eb3639c2708ba3f7cd0d5.aa350611f0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>6b289d45d00e538d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90907.546d1e6b99f44f4897e7fd27d6d12111585ace4c577ca6a7017b8ebad89cf973.657f802221^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2023-11-13T16:02:45+01</t>
-  </si>
-  <si>
-    <t>815bd07a17935551</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90907.85beca3fde1e0f4736aaa325dcfa1066458ac3290b69cc294316ff99fc3b5d10.fc7846394c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>Applicativo non gestisce alcune sezioni opzionali</t>
   </si>
   <si>
@@ -940,6 +769,153 @@
   </si>
   <si>
     <t>SCS Computers S.r.l.</t>
+  </si>
+  <si>
+    <t>2023-11-22T15:34:59+01</t>
+  </si>
+  <si>
+    <t>2023-11-22T15:34:21+01</t>
+  </si>
+  <si>
+    <t>574bbb2fe10890ef</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90907.77a5d37c725c3df817c93b8e0fd031a923f676785cd5a055f7ccd80fcf9da34c.44e25a97c3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>69524ea51dd64624</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90907.a4818263ad6a659f2e17fd2620a8e334b189519d793e21dbbbf7413224e96fd6.0f0b4d119b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-22T15:35:00+01</t>
+  </si>
+  <si>
+    <t>a83960ae18094425</t>
+  </si>
+  <si>
+    <t>2023-11-22T15:34:22+01</t>
+  </si>
+  <si>
+    <t>d2cdc2443d1dc591</t>
+  </si>
+  <si>
+    <t>ff7a32f3c0216794</t>
+  </si>
+  <si>
+    <t>d133b1681c6dac60</t>
+  </si>
+  <si>
+    <t>2023-11-22T15:35:01+01</t>
+  </si>
+  <si>
+    <t>53144546ded728ea</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90907.942e71a9b7f5451b20eed2fef5fac1cca97aa30da9c90961e8846bc39ffe47e8.42a6639e9f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId]</t>
+  </si>
+  <si>
+    <t>2023-11-22T15:35:02+01</t>
+  </si>
+  <si>
+    <t>7f3a20768b4eefa5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90907.a6b91ad24d96bb9b7275d5f1ad9ec8cfc8f3e222eed12ec9792a14d25e347fb6.8afc4c0f67^^^^urn:ihe:iti:xdw:2013:workflowInstanceId]</t>
+  </si>
+  <si>
+    <t>1c49d96e83a9fd03</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90907.655e5f60f352d0fbe46d6772b9c0d122af2eaa814538ddf0a3529c3dcaeb45b9.258d56bcd1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId]</t>
+  </si>
+  <si>
+    <t>2023-11-22T15:35:03+01</t>
+  </si>
+  <si>
+    <t>d45360c64f4e28e1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90907.1357b4c165fe779487e0c6bdc375684ab2d891b26ccb7caeb1dfa1e462de0289.f7a037fe56^^^^urn:ihe:iti:xdw:2013:workflowInstanceId]</t>
+  </si>
+  <si>
+    <t>2023-11-22T15:34:23+01</t>
+  </si>
+  <si>
+    <t>f9715320692cc788</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90907.0162aeb27f89800715cbd51b9ec3cd3325596d0fb6d25c30ef0470deb48d7df5.4f5e1fde75^^^^urn:ihe:iti:xdw:2013:workflowInstanceId]</t>
+  </si>
+  <si>
+    <t>af1db9003ba14855</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90907.74336b6382ab75fac30712af89a5daa199bc463be67f1cdb7944fc87a93978d2.ef9dd478ea^^^^urn:ihe:iti:xdw:2013:workflowInstanceId]</t>
+  </si>
+  <si>
+    <t>2023-11-22T15:34:24+01</t>
+  </si>
+  <si>
+    <t>3d0b6959c4628a53</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90907.4a478c85ccb9d98e2b5718f41a780a81c2f2b2d25627ab02fd7b45699ec9ee61.0243556f2b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId]</t>
+  </si>
+  <si>
+    <t>2056a5e90bc9ed93</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90907.e95d0f263f1b2d6d83c7fea549c89fb538d1b420b14ad4cfbc4e8723325e02ba.6e465003e4^^^^urn:ihe:iti:xdw:2013:workflowInstanceId]</t>
+  </si>
+  <si>
+    <t>2023-11-22T15:34:25+01</t>
+  </si>
+  <si>
+    <t>da7d73e09fbdefe3</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90907.c13630014aed15a153c243c07fbb51f71aca3377473207b8fe44dec39ba2cb75.7f88856258^^^^urn:ihe:iti:xdw:2013:workflowInstanceId]</t>
+  </si>
+  <si>
+    <t>2023-11-22T15:34:26+01</t>
+  </si>
+  <si>
+    <t>f77f60a2dc4f572a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90907.a046f32c912527c80db1b8acf7436972ba95ba7ea442da565f36a79d633480e2.27f66f81e6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId]</t>
+  </si>
+  <si>
+    <t>c28ef5ee3cfc9806</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90907.b3d4b387d3c6607eeef0d61ef8912324a2afd4c12e7c8b7a3d50baa0645bc914.9a100140c0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId]</t>
+  </si>
+  <si>
+    <t>2023-11-22T15:34:27+01</t>
+  </si>
+  <si>
+    <t>62a5c288641c1214</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90907.f6558acdfebb6c7c5390f228d7551de0e2e1d7c36243f813656786587b00dfb0.aaffaa2c5a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId]</t>
+  </si>
+  <si>
+    <t>864d79dcc9fad9ff</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90907.8a26506386061c80b07456441ffb9c03d4bdbc96c6493d6380e62a202fc22d47.fbebe34eba^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-22T15:34:28+01</t>
+  </si>
+  <si>
+    <t>7d593071dd906498</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90907.7024cc5fc5fcd685b7293ac52a6777d75c33b8b0492b934bf8245e2b47e163a8.5bb83896f2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1574,14 +1550,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T679"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:D3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -1593,7 +1568,7 @@
     <col min="5" max="5" width="87.85546875" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
     <col min="9" max="9" width="30.140625" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" customWidth="1"/>
     <col min="11" max="11" width="44.42578125" customWidth="1"/>
@@ -1632,7 +1607,7 @@
       </c>
       <c r="B2" s="25"/>
       <c r="C2" s="26" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="D2" s="25"/>
       <c r="F2" s="3"/>
@@ -1842,7 +1817,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="10" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A10" s="11">
         <v>6</v>
       </c>
@@ -1859,16 +1834,16 @@
         <v>26</v>
       </c>
       <c r="F10" s="14">
-        <v>45243</v>
+        <v>45252</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="J10" s="16" t="s">
         <v>52</v>
@@ -1886,7 +1861,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="11" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A11" s="11">
         <v>7</v>
       </c>
@@ -1902,22 +1877,16 @@
       <c r="E11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="14">
-        <v>45243</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>144</v>
-      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
       <c r="J11" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="K11" s="16"/>
+        <v>135</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>140</v>
+      </c>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
@@ -1930,7 +1899,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="12" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A12" s="11">
         <v>8</v>
       </c>
@@ -1954,7 +1923,7 @@
         <v>135</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="L12" s="16"/>
       <c r="M12" s="16"/>
@@ -1968,7 +1937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="13" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A13" s="11">
         <v>9</v>
       </c>
@@ -1992,7 +1961,7 @@
         <v>135</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
@@ -2006,7 +1975,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="14" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A14" s="11">
         <v>24</v>
       </c>
@@ -2023,16 +1992,16 @@
         <v>35</v>
       </c>
       <c r="F14" s="14">
-        <v>45243</v>
+        <v>45252</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="J14" s="16" t="s">
         <v>52</v>
@@ -2050,7 +2019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="15" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A15" s="11">
         <v>25</v>
       </c>
@@ -2074,7 +2043,7 @@
         <v>135</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
@@ -2088,7 +2057,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="16" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A16" s="11">
         <v>26</v>
       </c>
@@ -2112,7 +2081,7 @@
         <v>135</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="L16" s="16"/>
       <c r="M16" s="16"/>
@@ -2150,7 +2119,7 @@
         <v>135</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
@@ -2164,7 +2133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="180.75" hidden="1" thickBot="1">
+    <row r="18" spans="1:20" ht="180.75" thickBot="1">
       <c r="A18" s="11">
         <v>29</v>
       </c>
@@ -2181,16 +2150,16 @@
         <v>44</v>
       </c>
       <c r="F18" s="14">
-        <v>45243</v>
+        <v>45252</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="J18" s="16" t="s">
         <v>52</v>
@@ -2207,7 +2176,7 @@
         <v>52</v>
       </c>
       <c r="P18" s="16" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="Q18" s="16"/>
       <c r="R18" s="17"/>
@@ -2233,16 +2202,16 @@
         <v>46</v>
       </c>
       <c r="F19" s="14">
-        <v>45243</v>
+        <v>45252</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>52</v>
@@ -2259,7 +2228,7 @@
         <v>52</v>
       </c>
       <c r="P19" s="16" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="Q19" s="16"/>
       <c r="R19" s="17"/>
@@ -2268,7 +2237,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="180.75" hidden="1" thickBot="1">
+    <row r="20" spans="1:20" ht="180.75" thickBot="1">
       <c r="A20" s="11">
         <v>37</v>
       </c>
@@ -2285,16 +2254,16 @@
         <v>48</v>
       </c>
       <c r="F20" s="14">
-        <v>45243</v>
+        <v>45252</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="J20" s="16" t="s">
         <v>52</v>
@@ -2311,7 +2280,7 @@
         <v>52</v>
       </c>
       <c r="P20" s="16" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="Q20" s="16"/>
       <c r="R20" s="17"/>
@@ -2337,16 +2306,16 @@
         <v>50</v>
       </c>
       <c r="F21" s="14">
-        <v>45243</v>
+        <v>45252</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="J21" s="16" t="s">
         <v>52</v>
@@ -2363,7 +2332,7 @@
         <v>52</v>
       </c>
       <c r="P21" s="16" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="16"/>
       <c r="R21" s="17"/>
@@ -2372,7 +2341,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="90.75" hidden="1" thickBot="1">
+    <row r="22" spans="1:20" ht="90.75" thickBot="1">
       <c r="A22" s="11">
         <v>45</v>
       </c>
@@ -2405,7 +2374,7 @@
         <v>52</v>
       </c>
       <c r="P22" s="16" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="Q22" s="16"/>
       <c r="R22" s="17" t="s">
@@ -2449,7 +2418,7 @@
         <v>52</v>
       </c>
       <c r="P23" s="16" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="16"/>
       <c r="R23" s="17" t="s">
@@ -2460,7 +2429,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="150.75" hidden="1" thickBot="1">
+    <row r="24" spans="1:20" ht="150.75" thickBot="1">
       <c r="A24" s="11">
         <v>63</v>
       </c>
@@ -2484,7 +2453,7 @@
         <v>135</v>
       </c>
       <c r="K24" s="20" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
@@ -2498,7 +2467,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="150.75" hidden="1" thickBot="1">
+    <row r="25" spans="1:20" ht="150.75" thickBot="1">
       <c r="A25" s="11">
         <v>64</v>
       </c>
@@ -2522,7 +2491,7 @@
         <v>135</v>
       </c>
       <c r="K25" s="20" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
@@ -2536,7 +2505,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="150.75" hidden="1" thickBot="1">
+    <row r="26" spans="1:20" ht="150.75" thickBot="1">
       <c r="A26" s="11">
         <v>65</v>
       </c>
@@ -2560,7 +2529,7 @@
         <v>135</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
@@ -2574,7 +2543,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="150.75" hidden="1" thickBot="1">
+    <row r="27" spans="1:20" ht="150.75" thickBot="1">
       <c r="A27" s="11">
         <v>66</v>
       </c>
@@ -2591,16 +2560,16 @@
         <v>62</v>
       </c>
       <c r="F27" s="14">
-        <v>45243</v>
+        <v>45252</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="J27" s="16" t="s">
         <v>52</v>
@@ -2617,7 +2586,7 @@
         <v>52</v>
       </c>
       <c r="P27" s="16" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="Q27" s="16"/>
       <c r="R27" s="17"/>
@@ -2626,7 +2595,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="150.75" hidden="1" thickBot="1">
+    <row r="28" spans="1:20" ht="150.75" thickBot="1">
       <c r="A28" s="11">
         <v>67</v>
       </c>
@@ -2643,16 +2612,16 @@
         <v>64</v>
       </c>
       <c r="F28" s="14">
-        <v>45243</v>
+        <v>45252</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="J28" s="16" t="s">
         <v>52</v>
@@ -2669,7 +2638,7 @@
         <v>52</v>
       </c>
       <c r="P28" s="16" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="Q28" s="16"/>
       <c r="R28" s="17"/>
@@ -2678,7 +2647,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="150.75" hidden="1" thickBot="1">
+    <row r="29" spans="1:20" ht="150.75" thickBot="1">
       <c r="A29" s="11">
         <v>68</v>
       </c>
@@ -2702,7 +2671,7 @@
         <v>135</v>
       </c>
       <c r="K29" s="20" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
@@ -2716,7 +2685,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="150.75" hidden="1" thickBot="1">
+    <row r="30" spans="1:20" ht="150.75" thickBot="1">
       <c r="A30" s="11">
         <v>69</v>
       </c>
@@ -2740,7 +2709,7 @@
         <v>135</v>
       </c>
       <c r="K30" s="20" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
@@ -2754,7 +2723,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="150.75" hidden="1" thickBot="1">
+    <row r="31" spans="1:20" ht="150.75" thickBot="1">
       <c r="A31" s="11">
         <v>70</v>
       </c>
@@ -2771,16 +2740,16 @@
         <v>70</v>
       </c>
       <c r="F31" s="14">
-        <v>45243</v>
+        <v>45252</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="J31" s="16" t="s">
         <v>52</v>
@@ -2797,7 +2766,7 @@
         <v>52</v>
       </c>
       <c r="P31" s="16" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="Q31" s="16"/>
       <c r="R31" s="17"/>
@@ -2806,7 +2775,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="150.75" hidden="1" thickBot="1">
+    <row r="32" spans="1:20" ht="150.75" thickBot="1">
       <c r="A32" s="11">
         <v>71</v>
       </c>
@@ -2830,7 +2799,7 @@
         <v>135</v>
       </c>
       <c r="K32" s="20" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="L32" s="16"/>
       <c r="M32" s="16"/>
@@ -2844,7 +2813,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="150.75" hidden="1" thickBot="1">
+    <row r="33" spans="1:20" ht="150.75" thickBot="1">
       <c r="A33" s="11">
         <v>72</v>
       </c>
@@ -2868,7 +2837,7 @@
         <v>135</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
@@ -2882,7 +2851,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="150.75" hidden="1" thickBot="1">
+    <row r="34" spans="1:20" ht="150.75" thickBot="1">
       <c r="A34" s="11">
         <v>73</v>
       </c>
@@ -2899,16 +2868,16 @@
         <v>76</v>
       </c>
       <c r="F34" s="14">
-        <v>45243</v>
+        <v>45252</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="J34" s="16" t="s">
         <v>52</v>
@@ -2925,7 +2894,7 @@
         <v>52</v>
       </c>
       <c r="P34" s="16" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="Q34" s="16"/>
       <c r="R34" s="17"/>
@@ -2934,7 +2903,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="150.75" hidden="1" thickBot="1">
+    <row r="35" spans="1:20" ht="150.75" thickBot="1">
       <c r="A35" s="11">
         <v>74</v>
       </c>
@@ -2958,7 +2927,7 @@
         <v>135</v>
       </c>
       <c r="K35" s="20" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
@@ -2996,7 +2965,7 @@
         <v>135</v>
       </c>
       <c r="K36" s="20" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="L36" s="16"/>
       <c r="M36" s="16"/>
@@ -3034,7 +3003,7 @@
         <v>135</v>
       </c>
       <c r="K37" s="20" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
@@ -3072,7 +3041,7 @@
         <v>135</v>
       </c>
       <c r="K38" s="20" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
@@ -3103,16 +3072,16 @@
         <v>86</v>
       </c>
       <c r="F39" s="14">
-        <v>45243</v>
+        <v>45252</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="J39" s="16" t="s">
         <v>52</v>
@@ -3129,7 +3098,7 @@
         <v>52</v>
       </c>
       <c r="P39" s="16" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="Q39" s="16"/>
       <c r="R39" s="17"/>
@@ -3155,16 +3124,16 @@
         <v>88</v>
       </c>
       <c r="F40" s="14">
-        <v>45243</v>
+        <v>45252</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="I40" s="15" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="J40" s="16" t="s">
         <v>52</v>
@@ -3181,7 +3150,7 @@
         <v>52</v>
       </c>
       <c r="P40" s="16" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="Q40" s="16"/>
       <c r="R40" s="17"/>
@@ -3214,7 +3183,7 @@
         <v>135</v>
       </c>
       <c r="K41" s="20" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="L41" s="16"/>
       <c r="M41" s="16"/>
@@ -3252,7 +3221,7 @@
         <v>135</v>
       </c>
       <c r="K42" s="20" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
@@ -3283,16 +3252,16 @@
         <v>94</v>
       </c>
       <c r="F43" s="14">
-        <v>45243</v>
+        <v>45252</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="J43" s="16" t="s">
         <v>52</v>
@@ -3309,7 +3278,7 @@
         <v>52</v>
       </c>
       <c r="P43" s="16" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="Q43" s="16"/>
       <c r="R43" s="17"/>
@@ -3342,7 +3311,7 @@
         <v>135</v>
       </c>
       <c r="K44" s="20" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="L44" s="16"/>
       <c r="M44" s="16"/>
@@ -3380,7 +3349,7 @@
         <v>135</v>
       </c>
       <c r="K45" s="20" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
@@ -3418,7 +3387,7 @@
         <v>135</v>
       </c>
       <c r="K46" s="20" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="L46" s="16"/>
       <c r="M46" s="16"/>
@@ -3449,16 +3418,16 @@
         <v>102</v>
       </c>
       <c r="F47" s="14">
-        <v>45243</v>
+        <v>45252</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="J47" s="16" t="s">
         <v>52</v>
@@ -3475,7 +3444,7 @@
         <v>52</v>
       </c>
       <c r="P47" s="16" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="Q47" s="16"/>
       <c r="R47" s="17"/>
@@ -3508,7 +3477,7 @@
         <v>135</v>
       </c>
       <c r="K48" s="20" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="L48" s="16"/>
       <c r="M48" s="16"/>
@@ -3546,7 +3515,7 @@
         <v>135</v>
       </c>
       <c r="K49" s="20" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="L49" s="16"/>
       <c r="M49" s="16"/>
@@ -3584,7 +3553,7 @@
         <v>135</v>
       </c>
       <c r="K50" s="20" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="L50" s="16"/>
       <c r="M50" s="16"/>
@@ -3622,7 +3591,7 @@
         <v>135</v>
       </c>
       <c r="K51" s="20" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="L51" s="16"/>
       <c r="M51" s="16"/>
@@ -3660,7 +3629,7 @@
         <v>135</v>
       </c>
       <c r="K52" s="20" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="L52" s="16"/>
       <c r="M52" s="16"/>
@@ -3691,16 +3660,16 @@
         <v>114</v>
       </c>
       <c r="F53" s="14">
-        <v>45243</v>
+        <v>45252</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="J53" s="16" t="s">
         <v>52</v>
@@ -3717,7 +3686,7 @@
         <v>52</v>
       </c>
       <c r="P53" s="16" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="Q53" s="16"/>
       <c r="R53" s="17"/>
@@ -3743,16 +3712,16 @@
         <v>116</v>
       </c>
       <c r="F54" s="14">
-        <v>45243</v>
+        <v>45252</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="J54" s="16" t="s">
         <v>52</v>
@@ -3769,7 +3738,7 @@
         <v>52</v>
       </c>
       <c r="P54" s="16" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="Q54" s="16"/>
       <c r="R54" s="17"/>
@@ -3802,7 +3771,7 @@
         <v>135</v>
       </c>
       <c r="K55" s="20" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="L55" s="16"/>
       <c r="M55" s="16"/>
@@ -3840,7 +3809,7 @@
         <v>135</v>
       </c>
       <c r="K56" s="20" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="L56" s="16"/>
       <c r="M56" s="16"/>
@@ -3871,16 +3840,16 @@
         <v>122</v>
       </c>
       <c r="F57" s="14">
-        <v>45243</v>
+        <v>45252</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="I57" s="15" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="J57" s="16" t="s">
         <v>52</v>
@@ -3897,7 +3866,7 @@
         <v>52</v>
       </c>
       <c r="P57" s="16" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="Q57" s="16"/>
       <c r="R57" s="17"/>
@@ -3923,16 +3892,16 @@
         <v>124</v>
       </c>
       <c r="F58" s="14">
-        <v>45243</v>
+        <v>45252</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="J58" s="16" t="s">
         <v>52</v>
@@ -3949,7 +3918,7 @@
         <v>52</v>
       </c>
       <c r="P58" s="16" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="Q58" s="16"/>
       <c r="R58" s="17"/>
@@ -3982,7 +3951,7 @@
         <v>135</v>
       </c>
       <c r="K59" s="20" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="L59" s="16"/>
       <c r="M59" s="16"/>
@@ -3996,7 +3965,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="150">
+    <row r="60" spans="1:20" ht="150.75" thickBot="1">
       <c r="A60" s="11">
         <v>146</v>
       </c>
@@ -4020,7 +3989,7 @@
         <v>135</v>
       </c>
       <c r="K60" s="20" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="L60" s="16"/>
       <c r="M60" s="16"/>
@@ -4034,7 +4003,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="14.25" hidden="1" customHeight="1" thickBot="1">
+    <row r="61" spans="1:20" ht="14.25" customHeight="1" thickBot="1">
       <c r="A61" s="11">
         <v>369</v>
       </c>
@@ -4051,16 +4020,16 @@
         <v>130</v>
       </c>
       <c r="F61" s="14">
-        <v>45243</v>
+        <v>45252</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="J61" s="16" t="s">
         <v>52</v>
@@ -4078,7 +4047,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="62" spans="1:20" ht="14.25" customHeight="1">
       <c r="A62" s="11">
         <v>373</v>
       </c>
@@ -4095,16 +4064,16 @@
         <v>132</v>
       </c>
       <c r="F62" s="14">
-        <v>45243</v>
+        <v>45252</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="I62" s="15" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="J62" s="16" t="s">
         <v>52</v>
@@ -8774,18 +8743,7 @@
       <c r="T679" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:T62" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="VPS"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="19">
-      <filters>
-        <filter val="KO"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A9:T62" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
@@ -8805,7 +8763,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>L10:M62 J10:J62 O10:O62</xm:sqref>
+          <xm:sqref>L10:M62 O10:O62 J10:J62</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
           <x14:formula1>

--- a/GATEWAY/A1#111SCSCOMPUTERS/SCS_SRL/AUSYLIA/1.0.8/report-checklist.xlsx
+++ b/GATEWAY/A1#111SCSCOMPUTERS/SCS_SRL/AUSYLIA/1.0.8/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SCS\#TODO\2023-01-09 - #4587 - FSE 2.0\collaudo_FSE_2.0_2023_11_22\AUSYLIA\1.0.8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SCS\#TODO\2023-01-09 - #4587 - FSE 2.0\collaudo_FSE_2.0_2023_11_28\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642DCD6A-9D3A-43DE-95AA-E913226A5E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00DEDC5-9568-47FA-9199-0FE16D42D122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-13068" windowWidth="46296" windowHeight="25416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
@@ -774,21 +774,12 @@
     <t>2023-11-22T15:34:59+01</t>
   </si>
   <si>
-    <t>2023-11-22T15:34:21+01</t>
-  </si>
-  <si>
     <t>574bbb2fe10890ef</t>
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90907.77a5d37c725c3df817c93b8e0fd031a923f676785cd5a055f7ccd80fcf9da34c.44e25a97c3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>69524ea51dd64624</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.90907.a4818263ad6a659f2e17fd2620a8e334b189519d793e21dbbbf7413224e96fd6.0f0b4d119b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>2023-11-22T15:35:00+01</t>
   </si>
   <si>
@@ -916,6 +907,15 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90907.7024cc5fc5fcd685b7293ac52a6777d75c33b8b0492b934bf8245e2b47e163a8.5bb83896f2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2023-11-28T10:30:17+01</t>
+  </si>
+  <si>
+    <t>d3de9857053726c8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.90907.216aabbfcec5d2fb3d7aa19741fdfb2d6ddbaf76e94d387beb9458d720cfa638.4ebe957701^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -1840,10 +1840,10 @@
         <v>155</v>
       </c>
       <c r="H10" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" s="15" t="s">
         <v>157</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>158</v>
       </c>
       <c r="J10" s="16" t="s">
         <v>52</v>
@@ -1992,16 +1992,16 @@
         <v>35</v>
       </c>
       <c r="F14" s="14">
-        <v>45252</v>
+        <v>45258</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>159</v>
+        <v>202</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>160</v>
+        <v>203</v>
       </c>
       <c r="J14" s="16" t="s">
         <v>52</v>
@@ -2153,10 +2153,10 @@
         <v>45252</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I18" s="15" t="s">
         <v>139</v>
@@ -2205,10 +2205,10 @@
         <v>45252</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I19" s="15" t="s">
         <v>139</v>
@@ -2257,10 +2257,10 @@
         <v>45252</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I20" s="15" t="s">
         <v>139</v>
@@ -2309,10 +2309,10 @@
         <v>45252</v>
       </c>
       <c r="G21" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="H21" s="15" t="s">
         <v>163</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>166</v>
       </c>
       <c r="I21" s="15" t="s">
         <v>139</v>
@@ -2563,13 +2563,13 @@
         <v>45252</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J27" s="16" t="s">
         <v>52</v>
@@ -2615,13 +2615,13 @@
         <v>45252</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J28" s="16" t="s">
         <v>52</v>
@@ -2743,13 +2743,13 @@
         <v>45252</v>
       </c>
       <c r="G31" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="H31" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="H31" s="15" t="s">
-        <v>173</v>
-      </c>
       <c r="I31" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J31" s="16" t="s">
         <v>52</v>
@@ -2871,13 +2871,13 @@
         <v>45252</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J34" s="16" t="s">
         <v>52</v>
@@ -3075,13 +3075,13 @@
         <v>45252</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J39" s="16" t="s">
         <v>52</v>
@@ -3127,13 +3127,13 @@
         <v>45252</v>
       </c>
       <c r="G40" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="H40" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="H40" s="15" t="s">
-        <v>181</v>
-      </c>
       <c r="I40" s="15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J40" s="16" t="s">
         <v>52</v>
@@ -3255,13 +3255,13 @@
         <v>45252</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I43" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J43" s="16" t="s">
         <v>52</v>
@@ -3421,13 +3421,13 @@
         <v>45252</v>
       </c>
       <c r="G47" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="H47" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="H47" s="15" t="s">
-        <v>186</v>
-      </c>
       <c r="I47" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="J47" s="16" t="s">
         <v>52</v>
@@ -3663,13 +3663,13 @@
         <v>45252</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="J53" s="16" t="s">
         <v>52</v>
@@ -3715,13 +3715,13 @@
         <v>45252</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J54" s="16" t="s">
         <v>52</v>
@@ -3843,13 +3843,13 @@
         <v>45252</v>
       </c>
       <c r="G57" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="H57" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="H57" s="15" t="s">
-        <v>194</v>
-      </c>
       <c r="I57" s="15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="J57" s="16" t="s">
         <v>52</v>
@@ -3895,13 +3895,13 @@
         <v>45252</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="J58" s="16" t="s">
         <v>52</v>
@@ -4023,13 +4023,13 @@
         <v>45252</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I61" s="15" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J61" s="16" t="s">
         <v>52</v>
@@ -4067,13 +4067,13 @@
         <v>45252</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I62" s="15" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J62" s="16" t="s">
         <v>52</v>

--- a/GATEWAY/A1#111SCSCOMPUTERS/SCS_SRL/AUSYLIA/1.0.8/report-checklist.xlsx
+++ b/GATEWAY/A1#111SCSCOMPUTERS/SCS_SRL/AUSYLIA/1.0.8/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SCS\#TODO\2023-01-09 - #4587 - FSE 2.0\collaudo_FSE_2.0_2023_11_28\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SCS\#TODO\2023-01-09 - #4587 - FSE 2.0\collaudo_FSE_2.0_2023_12_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00DEDC5-9568-47FA-9199-0FE16D42D122}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6630F6BA-8FA5-4311-B38D-CB1CBF716B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-13068" windowWidth="46296" windowHeight="25416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="205">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -916,6 +916,9 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.90907.216aabbfcec5d2fb3d7aa19741fdfb2d6ddbaf76e94d387beb9458d720cfa638.4ebe957701^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attenzione! Indicare il decorso ospedaliero </t>
   </si>
 </sst>
 </file>
@@ -1553,10 +1556,10 @@
   <dimension ref="A1:T679"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -2759,15 +2762,15 @@
         <v>135</v>
       </c>
       <c r="M31" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="O31" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="P31" s="16" t="s">
-        <v>150</v>
-      </c>
+      <c r="P31" s="16"/>
       <c r="Q31" s="16"/>
       <c r="R31" s="17"/>
       <c r="S31" s="18"/>

--- a/GATEWAY/A1#111SCSCOMPUTERS/SCS_SRL/AUSYLIA/1.0.8/report-checklist.xlsx
+++ b/GATEWAY/A1#111SCSCOMPUTERS/SCS_SRL/AUSYLIA/1.0.8/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SCS\#TODO\2023-01-09 - #4587 - FSE 2.0\collaudo_FSE_2.0_2023_12_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SCS\#TODO\2023-01-09 - #4587 - FSE 2.0\collaudo_FSE_2.0_2023_12_05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6630F6BA-8FA5-4311-B38D-CB1CBF716B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCE86F4-4BBA-4D77-817D-907E09D42C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-13068" windowWidth="46296" windowHeight="25416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="3" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="206">
   <si>
     <t>NOME FORNITORE:</t>
   </si>
@@ -919,6 +919,9 @@
   </si>
   <si>
     <t xml:space="preserve">Attenzione! Indicare il decorso ospedaliero </t>
+  </si>
+  <si>
+    <t>In caso di errore il sistema genera una segnalazione visibile dall'utente come una finestra di alert nell'applicativo, contenente i log di errore. L'utente può gestire l'errore autonomamente o contattando il nostro helpdesk</t>
   </si>
 </sst>
 </file>
@@ -1556,10 +1559,10 @@
   <dimension ref="A1:T679"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31:XFD31"/>
+      <selection pane="bottomRight" activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
@@ -2770,7 +2773,9 @@
       <c r="O31" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="P31" s="16"/>
+      <c r="P31" s="16" t="s">
+        <v>205</v>
+      </c>
       <c r="Q31" s="16"/>
       <c r="R31" s="17"/>
       <c r="S31" s="18"/>
